--- a/src/main/webapp/instructions/Instruction_Part2.xlsx
+++ b/src/main/webapp/instructions/Instruction_Part2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky Handsome\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hoc Tap Hoc Tap\Git\Toeic-master-website\src\main\webapp\instructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
-  <si>
-    <t>Bai tap part2_v18</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Question Response</t>
   </si>
@@ -44,38 +41,70 @@
     <t>Dap an</t>
   </si>
   <si>
-    <t>Anwser A</t>
-  </si>
-  <si>
-    <t>Anwser B</t>
-  </si>
-  <si>
-    <t>Anwser C</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>D</t>
+    <t>Câu hỏi</t>
+  </si>
+  <si>
+    <t> How will the office equipment be transported?</t>
+  </si>
+  <si>
+    <t>Next to the parking lot</t>
+  </si>
+  <si>
+    <t>Sometime next week</t>
+  </si>
+  <si>
+    <t>It will go by courier</t>
+  </si>
+  <si>
+    <t>Who’s in charge of controlling the product quality?</t>
+  </si>
+  <si>
+    <t>It’s available at no extra charge</t>
+  </si>
+  <si>
+    <t>Out production department</t>
+  </si>
+  <si>
+    <t>Choose the course you like</t>
+  </si>
+  <si>
+    <t>No, this is my first time</t>
+  </si>
+  <si>
+    <t>Have a good time</t>
+  </si>
+  <si>
+    <t>Between 10 and 11 a.m</t>
+  </si>
+  <si>
+    <t> When is the best time to meet you?</t>
+  </si>
+  <si>
+    <t>BT Part 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -104,20 +133,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -392,104 +453,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>